--- a/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
+++ b/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand.AUTH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand\Documents\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="6912"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Memory Allocation" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Memory Allocation" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>PGA_AGGREGATE_LIMIT</t>
   </si>
@@ -42,9 +43,6 @@
     <t>_SMM_PX_MAX_SIZE</t>
   </si>
   <si>
-    <t>_SMM_ISORT_CAP</t>
-  </si>
-  <si>
     <t>SGA_MAX_SIZE</t>
   </si>
   <si>
@@ -87,9 +85,6 @@
     <t>PARALLEL_THREADS_PER_CPU</t>
   </si>
   <si>
-    <t>PARALLEL_EXECUTION_MESSAGE_SIZE</t>
-  </si>
-  <si>
     <t>250G</t>
   </si>
   <si>
@@ -99,9 +94,6 @@
     <t>2G</t>
   </si>
   <si>
-    <t>200M</t>
-  </si>
-  <si>
     <t>4G</t>
   </si>
   <si>
@@ -165,21 +157,9 @@
     <t>Fixed Parameters</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Calculated Parameters</t>
   </si>
   <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>8k</t>
-  </si>
-  <si>
-    <t>32k</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -204,17 +184,23 @@
     <t>On</t>
   </si>
   <si>
-    <t>Monitored</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>6G</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Run Number</t>
+  </si>
+  <si>
+    <t>Experiment # 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +218,20 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -395,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,15 +403,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,15 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,7 +444,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,6 +519,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -727,6 +749,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1650,487 +1673,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
-        <v>50</v>
-      </c>
-      <c r="E5" s="21">
-        <v>90</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20">
-        <v>50</v>
-      </c>
-      <c r="E13" s="21">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" location="REFRN10160"/>
-    <hyperlink ref="B25" r:id="rId2" location="REFRN10154"/>
-    <hyperlink ref="B22" r:id="rId3" location="REFRN10312"/>
-    <hyperlink ref="B21" r:id="rId4" location="REFRN10256"/>
-    <hyperlink ref="B20" r:id="rId5" location="REFRN10198"/>
-    <hyperlink ref="B19" r:id="rId6" location="REFRN10165"/>
-    <hyperlink ref="B18" r:id="rId7" location="REFRN10328"/>
+    <hyperlink ref="B18" r:id="rId1" location="REFRN10160"/>
+    <hyperlink ref="B20" r:id="rId2" location="REFRN10154"/>
+    <hyperlink ref="B17" r:id="rId3" location="REFRN10312"/>
+    <hyperlink ref="B16" r:id="rId4" location="REFRN10256"/>
+    <hyperlink ref="B15" r:id="rId5" location="REFRN10198"/>
+    <hyperlink ref="B14" r:id="rId6" location="REFRN10165"/>
+    <hyperlink ref="B13" r:id="rId7" location="REFRN10328"/>
     <hyperlink ref="B7" r:id="rId8" location="REFRN10310"/>
     <hyperlink ref="B4" r:id="rId9" location="REFRN10033"/>
     <hyperlink ref="B5" r:id="rId10" location="REFRN10340"/>
-    <hyperlink ref="B12" r:id="rId11" location="REFRN10314"/>
-    <hyperlink ref="B24" r:id="rId12" location="REFRN10158"/>
-    <hyperlink ref="B15" r:id="rId13" location="REFRN10156"/>
-    <hyperlink ref="B6" r:id="rId14" location="REFRN10348"/>
-    <hyperlink ref="B11" r:id="rId15" location="REFRN10309"/>
-    <hyperlink ref="B14" r:id="rId16" location="REFRN10163"/>
-    <hyperlink ref="B8" r:id="rId17" location="REFRN10310"/>
-    <hyperlink ref="B9" r:id="rId18" location="REFRN10310"/>
-    <hyperlink ref="B10" r:id="rId19" location="REFRN10310"/>
+    <hyperlink ref="B22" r:id="rId11" location="REFRN10314"/>
+    <hyperlink ref="B19" r:id="rId12" location="REFRN10158"/>
+    <hyperlink ref="B6" r:id="rId13" location="REFRN10348"/>
+    <hyperlink ref="B21" r:id="rId14" location="REFRN10309"/>
+    <hyperlink ref="B24" r:id="rId15" location="REFRN10163"/>
+    <hyperlink ref="B8" r:id="rId16" location="REFRN10310"/>
+    <hyperlink ref="B9" r:id="rId17" location="REFRN10310"/>
+    <hyperlink ref="B10" r:id="rId18" location="REFRN10310"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2138,47 +2195,47 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <f>250 -B3-B4</f>

--- a/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
+++ b/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand\Documents\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand.AUTH\Documents\GitHub\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="6912"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -190,10 +190,10 @@
     <t>DOP</t>
   </si>
   <si>
-    <t>Run Number</t>
-  </si>
-  <si>
     <t>Experiment # 1</t>
+  </si>
+  <si>
+    <t>Split</t>
   </si>
 </sst>
 </file>
@@ -225,14 +225,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -390,12 +390,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +483,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,28 +507,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1675,27 +1723,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1729,7 +1777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1763,7 +1811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1814,7 +1862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1848,15 +1896,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1900,7 +1948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +1970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +1981,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +2003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +2014,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1988,15 +2036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2053,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2014,7 +2062,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -2050,135 +2098,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="10">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -2195,13 +2241,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2209,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2217,7 +2263,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>

--- a/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
+++ b/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>PGA_AGGREGATE_LIMIT</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Split</t>
+  </si>
+  <si>
+    <t>Experiment # 2</t>
+  </si>
+  <si>
+    <t>Parallel Degree Policy</t>
+  </si>
+  <si>
+    <t>DB_BIG_TABLE_CACHE_TARGET_PERCENT</t>
   </si>
 </sst>
 </file>
@@ -489,6 +498,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,24 +532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +576,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1724,7 +1731,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,13 +1742,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1898,11 +1905,11 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2038,10 +2045,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,47 +2103,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="E1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="E2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="25">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2144,10 +2176,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2155,21 +2196,39 @@
         <v>21</v>
       </c>
       <c r="C5" s="10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+        <v>64</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="25">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="23">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2177,10 +2236,19 @@
         <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2188,21 +2256,39 @@
         <v>22</v>
       </c>
       <c r="C8" s="10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="25">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="23">
+        <v>7</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2210,10 +2296,19 @@
         <v>52</v>
       </c>
       <c r="C10" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2221,15 +2316,26 @@
         <v>52</v>
       </c>
       <c r="C11" s="10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>64</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
+++ b/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand.AUTH\Documents\GitHub\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nic\Projects\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Experiment 1" sheetId="3" r:id="rId2"/>
     <sheet name="Memory Allocation" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>PGA_AGGREGATE_LIMIT</t>
   </si>
@@ -203,12 +203,39 @@
   </si>
   <si>
     <t>DB_BIG_TABLE_CACHE_TARGET_PERCENT</t>
+  </si>
+  <si>
+    <t>Experiment # X</t>
+  </si>
+  <si>
+    <t>NO MEMCOMPRESS</t>
+  </si>
+  <si>
+    <t>MEMCOMPRESS FOR DML</t>
+  </si>
+  <si>
+    <t>MEMCOMPRESS FOR QUERY LOW</t>
+  </si>
+  <si>
+    <t>IMCS Compression</t>
+  </si>
+  <si>
+    <t>0G</t>
+  </si>
+  <si>
+    <t>MEMCOMPRESS FOR QUERY HIGH</t>
+  </si>
+  <si>
+    <t>MEMCOMPRESS FOR CAPACITY LOW</t>
+  </si>
+  <si>
+    <t>MEMCOMPRESS FOR CAPACITY HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +589,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -682,6 +709,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6D8-432F-994D-8EAF1D0A948F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -702,6 +734,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6D8-432F-994D-8EAF1D0A948F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -722,6 +759,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D6D8-432F-994D-8EAF1D0A948F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -742,6 +784,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D6D8-432F-994D-8EAF1D0A948F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -784,6 +831,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D6D8-432F-994D-8EAF1D0A948F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1541,6 +1593,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1576,6 +1645,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1734,14 +1820,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1836,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +1938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1869,7 +1955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1903,15 +1989,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:5" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A12" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +2019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +2030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1955,7 +2041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +2052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +2063,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1988,7 +2074,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2010,7 +2096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2021,7 +2107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2043,15 +2129,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="1:3" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2146,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2155,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -2103,20 +2189,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.59765625" customWidth="1"/>
+    <col min="5" max="6" width="25.73046875" customWidth="1"/>
+    <col min="7" max="7" width="48.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2214,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2168,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2188,7 +2274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2208,7 +2294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -2228,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2248,7 +2334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2268,7 +2354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -2288,7 +2374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2308,7 +2394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2328,11 +2414,97 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="23">
+        <v>4</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E20" s="7">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2347,13 +2519,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2361,7 +2533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2369,7 +2541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2385,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>33</v>
       </c>

--- a/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
+++ b/Kirby/Excel Files/RESOURCE_USAGE_PARAMETERS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nic\Projects\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand.AUTH\Documents\GitHub\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 1" sheetId="3" r:id="rId2"/>
     <sheet name="Memory Allocation" sheetId="2" r:id="rId3"/>
+    <sheet name="PGA vs Cores" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>PGA_AGGREGATE_LIMIT</t>
   </si>
@@ -202,9 +203,6 @@
     <t>Parallel Degree Policy</t>
   </si>
   <si>
-    <t>DB_BIG_TABLE_CACHE_TARGET_PERCENT</t>
-  </si>
-  <si>
     <t>Experiment # X</t>
   </si>
   <si>
@@ -230,12 +228,21 @@
   </si>
   <si>
     <t>MEMCOMPRESS FOR CAPACITY HIGH</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>Parallel Servers Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +596,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -709,7 +716,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D6D8-432F-994D-8EAF1D0A948F}"/>
               </c:ext>
@@ -734,7 +741,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D6D8-432F-994D-8EAF1D0A948F}"/>
               </c:ext>
@@ -759,7 +766,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-D6D8-432F-994D-8EAF1D0A948F}"/>
               </c:ext>
@@ -784,7 +791,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-D6D8-432F-994D-8EAF1D0A948F}"/>
               </c:ext>
@@ -831,7 +838,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-D6D8-432F-994D-8EAF1D0A948F}"/>
             </c:ext>
@@ -1593,23 +1600,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1645,23 +1635,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1820,14 +1793,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -1836,7 +1809,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1843,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1887,7 +1860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1938,7 +1911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1972,7 +1945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1989,15 +1962,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:5" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +1981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -2019,7 +1992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2030,7 +2003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -2074,7 +2047,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2107,7 +2080,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2129,15 +2102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="26" spans="1:3" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2119,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2155,7 +2128,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -2191,18 +2164,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.59765625" customWidth="1"/>
-    <col min="5" max="6" width="25.73046875" customWidth="1"/>
-    <col min="7" max="7" width="48.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2214,7 +2187,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
@@ -2231,10 +2204,10 @@
         <v>57</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -2254,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2274,7 +2247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2294,7 +2267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -2314,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2334,7 +2307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2354,7 +2327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -2374,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2394,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2414,92 +2387,92 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:7" ht="33.75" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E13" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="20" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E15" s="23">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="7">
         <v>3</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E18" s="23">
         <v>4</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="7">
         <v>6</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
@@ -2519,13 +2492,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2533,7 +2506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2541,7 +2514,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2549,7 +2522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2557,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2570,4 +2543,535 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>A2*4</f>
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <f>2*A2*4</f>
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <f>4*A2*4</f>
+        <v>128</v>
+      </c>
+      <c r="E2">
+        <f>6*A2*4</f>
+        <v>192</v>
+      </c>
+      <c r="F2">
+        <f>8*A2*4</f>
+        <v>256</v>
+      </c>
+      <c r="G2">
+        <f>10*A2*4</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B17" si="0">A3*4</f>
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <f>2*A3*4</f>
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="1">4*A3*4</f>
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="2">6*A3*4</f>
+        <v>384</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="3">8*A3*4</f>
+        <v>512</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="4">10*A3*4</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <f>2*A4*4</f>
+        <v>192</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <f>2*A5*4</f>
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>768</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <f>2*A6*4</f>
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="C7">
+        <f>2*A7*4</f>
+        <v>384</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>768</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1152</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>1536</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <f>2*A8*4</f>
+        <v>448</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>896</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1792</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <f>2*A9*4</f>
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1536</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <f>2*A10*4</f>
+        <v>576</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1152</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1728</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2304</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="C11">
+        <f>2*A11*4</f>
+        <v>640</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1920</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="C12">
+        <f>2*A12*4</f>
+        <v>704</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1408</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2112</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>2816</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="C13">
+        <f>2*A13*4</f>
+        <v>768</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1536</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2304</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>3072</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="C14">
+        <f>2*A14*4</f>
+        <v>832</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1664</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2496</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>3328</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="C15">
+        <f>2*A15*4</f>
+        <v>896</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1792</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2688</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3584</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="C16">
+        <f>2*A16*4</f>
+        <v>960</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2880</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>3840</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C17">
+        <f>2*A17*4</f>
+        <v>1024</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>3072</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B17/1024</f>
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:G18" si="5">C17/1024</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>